--- a/Adult Income Simple RF/Performance_metrics/model_perf_metrics_mean_of_iterations_test .xlsx
+++ b/Adult Income Simple RF/Performance_metrics/model_perf_metrics_mean_of_iterations_test .xlsx
@@ -490,7 +490,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -502,16 +502,16 @@
         <v>31655</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6722428748451054</v>
+        <v>0.6721062616944622</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.00139164</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7724061233639949</v>
+        <v>0.7719476064277901</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.00100737</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -536,16 +536,16 @@
         <v>31655</v>
       </c>
       <c r="G3" t="n">
-        <v>0.618699910952805</v>
+        <v>0.3607126412471388</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.00343565</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7301582245043079</v>
+        <v>0.6095683131191689</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.00140341</v>
       </c>
     </row>
     <row r="4">
@@ -558,7 +558,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -570,16 +570,16 @@
         <v>31655</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6582584657912923</v>
+        <v>0.214200059436902</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>0.0717255</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7541391393249506</v>
+        <v>0.5607314724117349</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>0.02241928</v>
       </c>
     </row>
     <row r="5">
@@ -588,32 +588,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>RF_simp_1_sample:12_cf:1_mean_of_1_iterations</t>
+          <t>RF_simp_1_sample:20_cf:1_mean_of_2_iterations</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>31667</v>
+        <v>31675</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5884593410778899</v>
+        <v>0.4148767586597639</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.08602414</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7109834307630359</v>
+        <v>0.6323989910528405</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.03430348</v>
       </c>
     </row>
     <row r="6">
@@ -622,32 +622,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>RF_simp_2_sample:12_cf:1_mean_of_1_iterations</t>
+          <t>RF_simp_2_sample:20_cf:1_mean_of_2_iterations</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>31667</v>
+        <v>31675</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6608636286055641</v>
+        <v>0.1987869115629599</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.0444495</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7566296652739979</v>
+        <v>0.5553975960041923</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.0136242</v>
       </c>
     </row>
     <row r="7">
@@ -656,32 +656,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>RF_simp_1_sample:12_cf:2_mean_of_1_iterations</t>
+          <t>RF_simp_1_sample:20_cf:2_mean_of_2_iterations</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E7" t="n">
         <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>31679</v>
+        <v>31695</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6082779009608278</v>
+        <v>0.3404801038076771</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.00268982</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7225790408576479</v>
+        <v>0.6016805552779103</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.00160676</v>
       </c>
     </row>
     <row r="8">
@@ -690,32 +690,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>RF_simp_2_sample:12_cf:2_mean_of_1_iterations</t>
+          <t>RF_simp_2_sample:20_cf:2_mean_of_2_iterations</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>31679</v>
+        <v>31695</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6618531889290012</v>
+        <v>0.1820311495107228</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.00169039</v>
       </c>
       <c r="I8" t="n">
-        <v>0.756577932814914</v>
+        <v>0.549942106195044</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.00052951</v>
       </c>
     </row>
   </sheetData>
